--- a/biology/Médecine/Centre_de_recherche_en_cancérologie_de_Marseille/Centre_de_recherche_en_cancérologie_de_Marseille.xlsx
+++ b/biology/Médecine/Centre_de_recherche_en_cancérologie_de_Marseille/Centre_de_recherche_en_cancérologie_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_recherche_en_canc%C3%A9rologie_de_Marseille</t>
+          <t>Centre_de_recherche_en_cancérologie_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre de recherche en cancérologie de Marseille (CRCM-UMR 1068 Inserm, UMR7258 CNRS, UM 105 Aix-Marseille Université) localisé sur le site de l’Institut Paoli-Calmettes, Centre régional de lutte contre le cancer, est structuré par une convention entre l’Inserm, le CNRS, l'Institut Paoli-Calmettes et Aix-Marseille Université.
 Le CRCM regroupe plus de 450 personnes, chercheurs, ingénieurs et techniciens (Inserm et CNRS), enseignant-chercheurs, praticiens hospitaliers et personnels techniques hospitaliers, doctorants et post-doctorants avec une ambition forte de recherche d’excellence sur le cancer, du fondamental aux applications vers le patient. Vingt et une équipes de recherche Inserm concentrent leurs efforts sur l'étude des mécanismes moléculaires de l’oncogenèse, des relations tumeur-microenvironnement, de la réponse immunitaire anti-tumorale et sur l’identification de biomarqueurs et de cibles thérapeutiques innovantes. L’originalité du CRCM est de combiner de façon totalement intégrée la biologie la plus fondamentale à une recherche clinique innovante soutenue par un bureau d’études cliniques et un centre de thérapie cellulaire et génique responsable d’une biothèque-tumorothèque.
